--- a/MVN/Data/CRM.xlsx
+++ b/MVN/Data/CRM.xlsx
@@ -28,10 +28,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -57,8 +68,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -339,20 +353,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45330</v>
+      </c>
+      <c r="C1" s="1">
+        <v>45420</v>
+      </c>
+      <c r="D1" s="2">
+        <v>7277200</v>
+      </c>
+      <c r="E1" s="2">
+        <v>30000</v>
+      </c>
+      <c r="F1" s="2">
+        <v>25990</v>
+      </c>
+      <c r="G1" s="2">
+        <v>200</v>
+      </c>
+      <c r="H1" s="2">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MVN/Data/CRM.xlsx
+++ b/MVN/Data/CRM.xlsx
@@ -19,9 +19,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>LG Refrigerator</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>AB123</t>
+  </si>
+  <si>
+    <t>@123</t>
+  </si>
+  <si>
+    <t>AB/</t>
+  </si>
+  <si>
+    <t>ABCDEFGHIJKLMNOPQRS</t>
+  </si>
+  <si>
+    <t>Blank</t>
+  </si>
+  <si>
+    <t>@$#!</t>
+  </si>
+  <si>
+    <t>abcde</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>ABCDEFGHIJKLMNO</t>
+  </si>
+  <si>
+    <t>ABCDEFGHIJKLMN</t>
+  </si>
+  <si>
+    <t>Accept</t>
+  </si>
+  <si>
+    <t>Reject</t>
   </si>
 </sst>
 </file>
@@ -68,11 +107,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -364,32 +416,318 @@
     <col min="2" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5">
         <v>45330</v>
       </c>
-      <c r="C1" s="1">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5">
         <v>45420</v>
       </c>
-      <c r="D1" s="2">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="6">
         <v>7277200</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="6">
         <v>30000</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="6">
         <v>25990</v>
       </c>
-      <c r="G1" s="2">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="6">
         <v>200</v>
       </c>
-      <c r="H1" s="2">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6">
         <v>280</v>
       </c>
-    </row>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/MVN/Data/CRM.xlsx
+++ b/MVN/Data/CRM.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
-  <si>
-    <t>LG Refrigerator</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>abc</t>
   </si>
@@ -61,6 +58,15 @@
   </si>
   <si>
     <t>Reject</t>
+  </si>
+  <si>
+    <t>LG Dual Invertor AC</t>
+  </si>
+  <si>
+    <t>03/29/2025</t>
+  </si>
+  <si>
+    <t>04/29/2025</t>
   </si>
 </sst>
 </file>
@@ -107,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -123,6 +129,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -408,12 +417,14 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="7" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
@@ -421,19 +432,18 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -451,15 +461,15 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="5">
-        <v>45330</v>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -477,17 +487,20 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="5">
-        <v>45420</v>
-      </c>
-      <c r="F4" s="3"/>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f>SUBSTITUTE(A1, "-", "/")</f>
+        <v/>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -503,15 +516,15 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="6">
-        <v>7277200</v>
+        <v>90980</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -529,15 +542,15 @@
     </row>
     <row r="6" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6">
-        <v>30000</v>
+        <v>45490</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -555,15 +568,15 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="6">
-        <v>25990</v>
+        <v>85990</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -571,7 +584,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -581,15 +594,15 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -607,15 +620,15 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6">
-        <v>280</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -636,11 +649,11 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -657,14 +670,14 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -681,14 +694,14 @@
     </row>
     <row r="12" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -705,14 +718,14 @@
     </row>
     <row r="13" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -727,7 +740,9 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
